--- a/Data Preparation & Analysis/Outputs/Tables.xlsx
+++ b/Data Preparation & Analysis/Outputs/Tables.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="16">
   <si>
     <t>1</t>
   </si>

--- a/Data Preparation & Analysis/Outputs/Tables.xlsx
+++ b/Data Preparation & Analysis/Outputs/Tables.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="18">
   <si>
     <t>1</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>Var Log</t>
+  </si>
+  <si>
+    <t>Relative Mean Health Investment</t>
+  </si>
+  <si>
+    <t>Gini Health Investment</t>
   </si>
 </sst>
 </file>
@@ -108,7 +114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -122,6 +128,12 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -142,6 +154,12 @@
         <v>0.053409042743628565</v>
       </c>
       <c r="F2">
+        <v>1.0782520719078388</v>
+      </c>
+      <c r="G2">
+        <v>0.16571411989849572</v>
+      </c>
+      <c r="H2">
         <v>0.018510466488601777</v>
       </c>
     </row>
@@ -162,6 +180,12 @@
         <v>0.066873376564381595</v>
       </c>
       <c r="F3">
+        <v>1.0149667663525841</v>
+      </c>
+      <c r="G3">
+        <v>0.18769049613579217</v>
+      </c>
+      <c r="H3">
         <v>0.019484348831174957</v>
       </c>
     </row>
@@ -182,6 +206,12 @@
         <v>0.081494399907351217</v>
       </c>
       <c r="F4">
+        <v>0.9157453790025406</v>
+      </c>
+      <c r="G4">
+        <v>0.21553098728587008</v>
+      </c>
+      <c r="H4">
         <v>0.023014640638864242</v>
       </c>
     </row>
@@ -202,6 +232,12 @@
         <v>0.16993642853196253</v>
       </c>
       <c r="F5">
+        <v>0.89237039322027367</v>
+      </c>
+      <c r="G5">
+        <v>0.23393481346645154</v>
+      </c>
+      <c r="H5">
         <v>0.06065869927737632</v>
       </c>
     </row>
@@ -222,6 +258,12 @@
         <v>0.089030812968597606</v>
       </c>
       <c r="F6">
+        <v>0.99999997044495548</v>
+      </c>
+      <c r="G6">
+        <v>0.19428852782208605</v>
+      </c>
+      <c r="H6">
         <v>0.026529983721237185</v>
       </c>
     </row>
@@ -231,7 +273,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -245,6 +287,12 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -265,6 +313,12 @@
         <v>0.053351672079178167</v>
       </c>
       <c r="F2">
+        <v>1.0802545201375473</v>
+      </c>
+      <c r="G2">
+        <v>0.16695196526926692</v>
+      </c>
+      <c r="H2">
         <v>0.018181818181818181</v>
       </c>
     </row>
@@ -285,6 +339,12 @@
         <v>0.06676732404565551</v>
       </c>
       <c r="F3">
+        <v>1.0145706375134074</v>
+      </c>
+      <c r="G3">
+        <v>0.1886771760608662</v>
+      </c>
+      <c r="H3">
         <v>0.019731590500898025</v>
       </c>
     </row>
@@ -305,6 +365,12 @@
         <v>0.081725891054135261</v>
       </c>
       <c r="F4">
+        <v>0.91201398721688443</v>
+      </c>
+      <c r="G4">
+        <v>0.21639366716999797</v>
+      </c>
+      <c r="H4">
         <v>0.023608969035472771</v>
       </c>
     </row>
@@ -325,6 +391,12 @@
         <v>0.16945804797550948</v>
       </c>
       <c r="F5">
+        <v>0.89323731114783356</v>
+      </c>
+      <c r="G5">
+        <v>0.2335550272454249</v>
+      </c>
+      <c r="H5">
         <v>0.061216787439613528</v>
       </c>
     </row>
@@ -345,6 +417,12 @@
         <v>0.088386813245091123</v>
       </c>
       <c r="F6">
+        <v>1.0000000330933994</v>
+      </c>
+      <c r="G6">
+        <v>0.19515366013786756</v>
+      </c>
+      <c r="H6">
         <v>0.026648261663001264</v>
       </c>
     </row>

--- a/Data Preparation & Analysis/Outputs/Tables.xlsx
+++ b/Data Preparation & Analysis/Outputs/Tables.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="18">
   <si>
     <t>1</t>
   </si>

--- a/Data Preparation & Analysis/Outputs/Tables.xlsx
+++ b/Data Preparation & Analysis/Outputs/Tables.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="18">
   <si>
     <t>1</t>
   </si>
